--- a/fellowes2025-09-10_16-01.xlsx
+++ b/fellowes2025-09-10_16-01.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="839">
   <si>
     <t>File Name</t>
   </si>
@@ -2352,6 +2352,183 @@
   </si>
   <si>
     <t>0.52 MB</t>
+  </si>
+  <si>
+    <t>BB Lifestyle_HandifileBlue_3.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/BB Lifestyle_HandifileBlue_3.tif</t>
+  </si>
+  <si>
+    <t>b1b5aa279d714ea6b748b354010d050a</t>
+  </si>
+  <si>
+    <t>62040_SmoothMove_Prime_47L_BedroomPacking5.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62040_SmoothMove_Prime_47L_BedroomPacking5.tif</t>
+  </si>
+  <si>
+    <t>2b3670d32eed4fa6ab5fb354010d0793</t>
+  </si>
+  <si>
+    <t>BB Lifestyle_HandifileBlue_7.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/BB Lifestyle_HandifileBlue_7.tif</t>
+  </si>
+  <si>
+    <t>c918894f8a1f4dc1b3bdb354010d0bf6</t>
+  </si>
+  <si>
+    <t>62038_SmoothMove_Classic_38L_KitchenPacking2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62038_SmoothMove_Classic_38L_KitchenPacking2.tif</t>
+  </si>
+  <si>
+    <t>3e6ceb75a3c84adda0e0b354010d1643</t>
+  </si>
+  <si>
+    <t>62040_SmoothMove_Prime_47L_KitchenPacking2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62040_SmoothMove_Prime_47L_KitchenPacking2.tif</t>
+  </si>
+  <si>
+    <t>741a7e7e35b84ccfb3fdb354010d19c0</t>
+  </si>
+  <si>
+    <t>7711301-BB-SM-SpecialtyBox-8.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/7711301-BB-SM-SpecialtyBox-8.tif</t>
+  </si>
+  <si>
+    <t>ace16e6f93024f2fbd7eb354010d1c9b</t>
+  </si>
+  <si>
+    <t>00927-00928-00929-Lifestyle-16.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/00927-00928-00929-Lifestyle-16.tif</t>
+  </si>
+  <si>
+    <t>6b73e9d06b6d49819324b354010d280d</t>
+  </si>
+  <si>
+    <t>0.71 MB</t>
+  </si>
+  <si>
+    <t>00927-00928-00929-Lifestyle-3.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/00927-00928-00929-Lifestyle-3.tif</t>
+  </si>
+  <si>
+    <t>c6ca32d236ef42c5b81bb354010d2957</t>
+  </si>
+  <si>
+    <t>0.46 MB</t>
+  </si>
+  <si>
+    <t>00627_setup_4-square.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/00627_setup_4-square.tif</t>
+  </si>
+  <si>
+    <t>fc982b692a8a4cd799bfb354010d2ebe</t>
+  </si>
+  <si>
+    <t>G2D Lifestyle Group_Green_1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/G2D Lifestyle Group_Green_1.tif</t>
+  </si>
+  <si>
+    <t>ada73c29176d47f191e2b354010d3815</t>
+  </si>
+  <si>
+    <t>BB SystGrey Lifestyle_92.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/BB SystGrey Lifestyle_92.tif</t>
+  </si>
+  <si>
+    <t>873910d8f07145349f6ab354010d37fa</t>
+  </si>
+  <si>
+    <t>G2D Lifestyle Group_White_Girl_2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/G2D Lifestyle Group_White_Girl_2.tif</t>
+  </si>
+  <si>
+    <t>12201a19b32145cbb99bb354010d3dc6</t>
+  </si>
+  <si>
+    <t>BB SystBlue Lifestyle_57.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/BB SystBlue Lifestyle_57.tif</t>
+  </si>
+  <si>
+    <t>435c043439bb49908d20b354010d4709</t>
+  </si>
+  <si>
+    <t>BB SystBlue Lifestyle_64.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/BB SystBlue Lifestyle_64.tif</t>
+  </si>
+  <si>
+    <t>0a1c891200fb4359ad83b354010d474b</t>
+  </si>
+  <si>
+    <t>72608_BB_Premium_Lifestyle_(b).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/72608_BB_Premium_Lifestyle_(b).tif</t>
+  </si>
+  <si>
+    <t>2018f4447604411c9a86b354010d51a6</t>
+  </si>
+  <si>
+    <t>1.18 MB</t>
+  </si>
+  <si>
+    <t>77727_4001_BB_Standard_Container_Building(e).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/77727_4001_BB_Standard_Container_Building(e).tif</t>
+  </si>
+  <si>
+    <t>1dd71fdc324d44e38674b354010d57ba</t>
+  </si>
+  <si>
+    <t>0.20 MB</t>
+  </si>
+  <si>
+    <t>44746_BB_Lifestyle_Heavy-Duty_Basic_(a).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/44746_BB_Lifestyle_Heavy-Duty_Basic_(a).tif</t>
+  </si>
+  <si>
+    <t>a5aa571bc4bf43ee8d3cb354010d56b2</t>
+  </si>
+  <si>
+    <t>1.07 MB</t>
+  </si>
+  <si>
+    <t>62036_SmoothMove_KitchenPacking9.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62036_SmoothMove_KitchenPacking9.tif</t>
+  </si>
+  <si>
+    <t>2c854800c1cb469bad71b354010d62a8</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J215"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9282,6 +9459,582 @@
         <v>779</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E216" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G216" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H216" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I216" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="J216" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E217" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F217" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G217" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H217" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I217" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="J217" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E218" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G218" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H218" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I218" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="J218" t="s" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G219" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H219" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I219" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="J219" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E220" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G220" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H220" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I220" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="J220" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H221" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I221" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="J221" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E222" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F222" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G222" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H222" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I222" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="J222" t="s" s="0">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F223" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G223" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H223" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I223" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="J223" t="s" s="0">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G224" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H224" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I224" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="J224" t="s" s="0">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G225" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H225" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I225" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="J225" t="s" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G226" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H226" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I226" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="J226" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G227" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H227" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I227" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J227" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F228" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G228" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H228" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I228" t="s" s="0">
+        <v>820</v>
+      </c>
+      <c r="J228" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H229" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I229" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="J229" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>825</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E230" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H230" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I230" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="J230" t="s" s="0">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G231" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H231" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I231" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="J231" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>832</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D232" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E232" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G232" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H232" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I232" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="J232" t="s" s="0">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D233" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G233" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H233" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I233" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="J233" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fellowes2025-09-10_16-01.xlsx
+++ b/fellowes2025-09-10_16-01.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="1075">
   <si>
     <t>File Name</t>
   </si>
@@ -2529,6 +2529,714 @@
   </si>
   <si>
     <t>2c854800c1cb469bad71b354010d62a8</t>
+  </si>
+  <si>
+    <t>72505_BB_Premium_Lifestyle_(a).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/72505_BB_Premium_Lifestyle_(a).tif</t>
+  </si>
+  <si>
+    <t>8e436d1a838846d6800cb354010d68ed</t>
+  </si>
+  <si>
+    <t>1.15 MB</t>
+  </si>
+  <si>
+    <t>00053_00059_00058_00060_BB_Premium_Lifestyle(a).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/00053_00059_00058_00060_BB_Premium_Lifestyle(a).tif</t>
+  </si>
+  <si>
+    <t>f686c4e939a74fce9b2fb354010d6794</t>
+  </si>
+  <si>
+    <t>1.64 MB</t>
+  </si>
+  <si>
+    <t>44826_BB_Style_Lifestyle(b).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/44826_BB_Style_Lifestyle(b).tif</t>
+  </si>
+  <si>
+    <t>8d4ce0439ed04c0da964b354010d7225</t>
+  </si>
+  <si>
+    <t>1.42 MB</t>
+  </si>
+  <si>
+    <t>62037_SmoothMove_Classic_32L_LivingPacking3.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62037_SmoothMove_Classic_32L_LivingPacking3.tif</t>
+  </si>
+  <si>
+    <t>629260b4986a4288b6f4b354010d791a</t>
+  </si>
+  <si>
+    <t>72075_BB_Lifestyle_SmoothMove_(b).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/72075_BB_Lifestyle_SmoothMove_(b).tif</t>
+  </si>
+  <si>
+    <t>fe7bbc94ca54426e9d5eb354010d78f3</t>
+  </si>
+  <si>
+    <t>1.47 MB</t>
+  </si>
+  <si>
+    <t>11896_BB_ProClipLightBlue_inset_A.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/11896_BB_ProClipLightBlue_inset_A.tif</t>
+  </si>
+  <si>
+    <t>1b667f92f0da416b9fd3b354010d8305</t>
+  </si>
+  <si>
+    <t>00704-filled-studio.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/00704-filled-studio.tif</t>
+  </si>
+  <si>
+    <t>67ca88be107a4b86940fb354010d8889</t>
+  </si>
+  <si>
+    <t>G2D Lifestyle Group_Blue_Girl_2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/G2D Lifestyle Group_Blue_Girl_2.tif</t>
+  </si>
+  <si>
+    <t>4ae1e3888d6e4d48bcceb354010d88ba</t>
+  </si>
+  <si>
+    <t>G2D Lifestyle Group_Green_2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/G2D Lifestyle Group_Green_2.tif</t>
+  </si>
+  <si>
+    <t>224458c536bf47c49edeb354010d9467</t>
+  </si>
+  <si>
+    <t>72605_BB_Premium_Lifestyle_(a).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/72605_BB_Premium_Lifestyle_(a).tif</t>
+  </si>
+  <si>
+    <t>7113695fb51c44f1b5d2b354010d9b09</t>
+  </si>
+  <si>
+    <t>BB SystGrey Lifestyle_35.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/BB SystGrey Lifestyle_35.tif</t>
+  </si>
+  <si>
+    <t>2b7be518c6ec406a853fb354010d9bb1</t>
+  </si>
+  <si>
+    <t>01880_BB_SystemGrey_Lifestyle(b).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/01880_BB_SystemGrey_Lifestyle(b).tif</t>
+  </si>
+  <si>
+    <t>d892a220eb9a49c28301b354010da4af</t>
+  </si>
+  <si>
+    <t>00309_BB_SystemBlue_Lifestyle(c).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/00309_BB_SystemBlue_Lifestyle(c).tif</t>
+  </si>
+  <si>
+    <t>4b48ce269bb24359b1f6b354010dab72</t>
+  </si>
+  <si>
+    <t>44813_BB_Style_Lifestyle(b).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/44813_BB_Style_Lifestyle(b).tif</t>
+  </si>
+  <si>
+    <t>e28e34bde06e46f489fcb354010dac57</t>
+  </si>
+  <si>
+    <t>1.76 MB</t>
+  </si>
+  <si>
+    <t>62052_SmoothMove_Prime_37L_Bedroom6.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62052_SmoothMove_Prime_37L_Bedroom6.tif</t>
+  </si>
+  <si>
+    <t>364544e1308442d8a323b354010db636</t>
+  </si>
+  <si>
+    <t>62060_BB_Lifestyle_SmoothMove_(c).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62060_BB_Lifestyle_SmoothMove_(c).tif</t>
+  </si>
+  <si>
+    <t>de42990718bc414c9cc6b354010dbb1d</t>
+  </si>
+  <si>
+    <t>72606_BB_Premium_Lifestyle_(j).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/72606_BB_Premium_Lifestyle_(j).tif</t>
+  </si>
+  <si>
+    <t>023df44ff4c6450e9eecb354010dbd82</t>
+  </si>
+  <si>
+    <t>1.31 MB</t>
+  </si>
+  <si>
+    <t>BB SystBlue Lifestyle_3.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/BB SystBlue Lifestyle_3.tif</t>
+  </si>
+  <si>
+    <t>220d99ef4a4e4e0b9f76b354010dc613</t>
+  </si>
+  <si>
+    <t>62057_BB_Lifestyle_SmoothMove_(b).tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/62057_BB_Lifestyle_SmoothMove_(b).tif</t>
+  </si>
+  <si>
+    <t>4bfdacb896e5445ea67cb354010dcb51</t>
+  </si>
+  <si>
+    <t>1.72 MB</t>
+  </si>
+  <si>
+    <t>0086102-Adding-Paper.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/0086102-Adding-Paper.tif</t>
+  </si>
+  <si>
+    <t>8327af2028b84721a714b354010dd043</t>
+  </si>
+  <si>
+    <t>Classic-7718201-7717201-7714203-LS-00.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Classic-7718201-7717201-7714203-LS-00.tif</t>
+  </si>
+  <si>
+    <t>a21862cc73e54d919a5eb354010dd7bd</t>
+  </si>
+  <si>
+    <t>0086402-OpenTopBin-R-011322.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/0086402-OpenTopBin-R-011322.tif</t>
+  </si>
+  <si>
+    <t>9fefced1d2334b5d85b6b354010ddf78</t>
+  </si>
+  <si>
+    <t>25.14 MB</t>
+  </si>
+  <si>
+    <t>0086402-OpenTopBin-L-011322.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/0086402-OpenTopBin-L-011322.tif</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>20a1b00c2e764861a811b354010de5cb</t>
+  </si>
+  <si>
+    <t>25.74 MB</t>
+  </si>
+  <si>
+    <t>0086402-OpenTopBin-Insert-20-111121.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/0086402-OpenTopBin-Insert-20-111121.tif</t>
+  </si>
+  <si>
+    <t>be851ca1c7be4c0a9bb0b354010dedfc</t>
+  </si>
+  <si>
+    <t>24.69 MB</t>
+  </si>
+  <si>
+    <t>Powertrim 5413001 in use.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Powertrim 5413001 in use.tif</t>
+  </si>
+  <si>
+    <t>3b4083da76d5486aa144b354010df002</t>
+  </si>
+  <si>
+    <t>PowerTrim_5413001_L45.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/PowerTrim_5413001_L45.tif</t>
+  </si>
+  <si>
+    <t>8276bb8cbc53423c9bf7b354010df5c8</t>
+  </si>
+  <si>
+    <t>0.38 MB</t>
+  </si>
+  <si>
+    <t>Powertrim Life.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Powertrim Life.tif</t>
+  </si>
+  <si>
+    <t>602d092379e74b0fbe10b354010dfee7</t>
+  </si>
+  <si>
+    <t>PowerTrim_5413001_back_R45.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/PowerTrim_5413001_back_R45.tif</t>
+  </si>
+  <si>
+    <t>092aaaccd81f41298caab354010e0103</t>
+  </si>
+  <si>
+    <t>PowerTrim_5413001_R45.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/PowerTrim_5413001_R45.tif</t>
+  </si>
+  <si>
+    <t>a8804cc550054c5cb83ab354010e0588</t>
+  </si>
+  <si>
+    <t>PowerTrim_5413001_front.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/PowerTrim_5413001_front.tif</t>
+  </si>
+  <si>
+    <t>ae307340050448369489b354010e0fd2</t>
+  </si>
+  <si>
+    <t>0086402-OpenTopBin-F-011322.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/0086402-OpenTopBin-F-011322.tif</t>
+  </si>
+  <si>
+    <t>253154b230b144b78d1bb354010e1403</t>
+  </si>
+  <si>
+    <t>24.10 MB</t>
+  </si>
+  <si>
+    <t>0086402-OpenTopBin-Prop-111121.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/0086402-OpenTopBin-Prop-111121.tif</t>
+  </si>
+  <si>
+    <t>9c6b0a316f9a46889a75b354010e1af6</t>
+  </si>
+  <si>
+    <t>24.77 MB</t>
+  </si>
+  <si>
+    <t>0086402-OpenTopBin-Insert-LL-111121.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/0086402-OpenTopBin-Insert-LL-111121.tif</t>
+  </si>
+  <si>
+    <t>38b199b0b28b4673ab5ab354010e235b</t>
+  </si>
+  <si>
+    <t>25.17 MB</t>
+  </si>
+  <si>
+    <t>stellar 180 5438402 spec.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/stellar 180 5438402 spec.eps</t>
+  </si>
+  <si>
+    <t>006430b9fa764883805cb354010e2551</t>
+  </si>
+  <si>
+    <t>0.42 MB</t>
+  </si>
+  <si>
+    <t>stellar series spec.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/stellar series spec.eps</t>
+  </si>
+  <si>
+    <t>43b16c2e0e9743c5952fb354010e2f88</t>
+  </si>
+  <si>
+    <t>0.41 MB</t>
+  </si>
+  <si>
+    <t>Stellar A3 54384.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stellar A3 54384.eps</t>
+  </si>
+  <si>
+    <t>db5048b08bc24199bc64b354010e32ce</t>
+  </si>
+  <si>
+    <t>Stellar 180 5438402.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stellar 180 5438402.eps</t>
+  </si>
+  <si>
+    <t>3005a3c2359d46948607b354010e34e7</t>
+  </si>
+  <si>
+    <t>Plasma A4 54110.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Plasma A4 54110.eps</t>
+  </si>
+  <si>
+    <t>d63e0cbc400d4012848eb354010e3f13</t>
+  </si>
+  <si>
+    <t>plasma series spec.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/plasma series spec.eps</t>
+  </si>
+  <si>
+    <t>d04743ad45a840929395b354010e41cf</t>
+  </si>
+  <si>
+    <t>Plasma 150 5411002.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Plasma 150 5411002.eps</t>
+  </si>
+  <si>
+    <t>98ab3ddefa354493a30bb354010e45c1</t>
+  </si>
+  <si>
+    <t>plasma 150 5411002 spec.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/plasma 150 5411002 spec.eps</t>
+  </si>
+  <si>
+    <t>a26e6e23cab4497bb132b354010e4db3</t>
+  </si>
+  <si>
+    <t>Galaxy comb measure 2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Galaxy comb measure 2.tif</t>
+  </si>
+  <si>
+    <t>ec93374e9ebd49578bd0b354010e4fdb</t>
+  </si>
+  <si>
+    <t>DskTpEdgeKybdLft_93847_Side_Angle1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/DskTpEdgeKybdLft_93847_Side_Angle1.tif</t>
+  </si>
+  <si>
+    <t>19c61a3aecb748789635b354010e5415</t>
+  </si>
+  <si>
+    <t>Black-Milton-Lineup-Render-022423.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Black-Milton-Lineup-Render-022423.tif</t>
+  </si>
+  <si>
+    <t>dbc6e80ca95947f2adbeb354010e5dff</t>
+  </si>
+  <si>
+    <t>0.16 MB</t>
+  </si>
+  <si>
+    <t>SafeCutCartr_web_Icon.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/SafeCutCartr_web_Icon.eps</t>
+  </si>
+  <si>
+    <t>7cac8728ca5c48378a19b354010e60aa</t>
+  </si>
+  <si>
+    <t>SafeCutClamp_web_Icon.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/SafeCutClamp_web_Icon.eps</t>
+  </si>
+  <si>
+    <t>6d102d023e27429aa837b354010e6538</t>
+  </si>
+  <si>
+    <t>0.14 MB</t>
+  </si>
+  <si>
+    <t>SafeCutBlade_web_Icon.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/SafeCutBlade_web_Icon.eps</t>
+  </si>
+  <si>
+    <t>00c401adfb5d4bb689feb354010e6f75</t>
+  </si>
+  <si>
+    <t>Neutrino_5412702_L45_L.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Neutrino_5412702_L45_L.tif</t>
+  </si>
+  <si>
+    <t>190ab3ab73d84dba988eb354010e722d</t>
+  </si>
+  <si>
+    <t>Neutrino_5412702_R45.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Neutrino_5412702_R45.tif</t>
+  </si>
+  <si>
+    <t>7eea9195c79649b3803bb354010e7768</t>
+  </si>
+  <si>
+    <t>Neutrino_5412702_R45_extra_part.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Neutrino_5412702_R45_extra_part.tif</t>
+  </si>
+  <si>
+    <t>1fa31a46ff88495b879cb354010e7fc4</t>
+  </si>
+  <si>
+    <t>Neutrino_5412702_L45_L_open.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Neutrino_5412702_L45_L_open.tif</t>
+  </si>
+  <si>
+    <t>f994a5c3599b4ec9864bb354010e859c</t>
+  </si>
+  <si>
+    <t>Neutrino_5412702_R45_end.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Neutrino_5412702_R45_end.tif</t>
+  </si>
+  <si>
+    <t>73e897f2a9c94996a9a3b354010e8c46</t>
+  </si>
+  <si>
+    <t>Gamma_A3_EU_Front.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Gamma_A3_EU_Front.tif</t>
+  </si>
+  <si>
+    <t>6232d812fa12428c8727b354010e8f75</t>
+  </si>
+  <si>
+    <t>Atom_01.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Atom_01.tif</t>
+  </si>
+  <si>
+    <t>7d55cc7017f743e5b975b354010e95e5</t>
+  </si>
+  <si>
+    <t>Atom_A3_EU_front.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Atom_A3_EU_front.tif</t>
+  </si>
+  <si>
+    <t>57c12ef24ae447aab900b354010e9ace</t>
+  </si>
+  <si>
+    <t>PowerTrim 5413001.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/PowerTrim 5413001.eps</t>
+  </si>
+  <si>
+    <t>22215209bbc34f9199c4b354010ea035</t>
+  </si>
+  <si>
+    <t>Proton 120 5410202.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Proton 120 5410202.eps</t>
+  </si>
+  <si>
+    <t>9e931be24d59470691e3b354010ea6a1</t>
+  </si>
+  <si>
+    <t>Proton A4 54102.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Proton A4 54102.eps</t>
+  </si>
+  <si>
+    <t>c1493391360f4d569224b354010eaa2a</t>
+  </si>
+  <si>
+    <t>durable.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/durable.eps</t>
+  </si>
+  <si>
+    <t>21dd28308acc4bf59207b354010eb03a</t>
+  </si>
+  <si>
+    <t>safecut blade.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/safecut blade.eps</t>
+  </si>
+  <si>
+    <t>ce9fe729d98a403180bdb354010eb6b1</t>
+  </si>
+  <si>
+    <t>18 inch length.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/18 inch length.eps</t>
+  </si>
+  <si>
+    <t>c4c87411c6b54bb68291b354010ebd41</t>
+  </si>
+  <si>
+    <t>Atom 150 5410602.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Atom 150 5410602.eps</t>
+  </si>
+  <si>
+    <t>db1a207fb6194ecb9d2db354010ec30c</t>
+  </si>
+  <si>
+    <t>safecut guard.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/safecut guard.eps</t>
+  </si>
+  <si>
+    <t>d448bfd6718444178963b354010ec7dc</t>
+  </si>
+  <si>
+    <t>12 inch length.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/12 inch length.eps</t>
+  </si>
+  <si>
+    <t>fdde6c0fa31e422eab39b354010ecc98</t>
+  </si>
+  <si>
+    <t>Plasma 180 5411102.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Plasma 180 5411102.eps</t>
+  </si>
+  <si>
+    <t>8c9fad0a963f4818be6eb354010ed275</t>
+  </si>
+  <si>
+    <t>Plasma A3 54111.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Plasma A3 54111.eps</t>
+  </si>
+  <si>
+    <t>4fc55ffdf3d6418ab83fb354010ed8ad</t>
+  </si>
+  <si>
+    <t>Neutrino 5412702.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Neutrino 5412702.eps</t>
+  </si>
+  <si>
+    <t>8aa917e8e54047948d95b354010edd21</t>
+  </si>
+  <si>
+    <t>Gamma A3 54374.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Gamma A3 54374.eps</t>
+  </si>
+  <si>
+    <t>c62e3671bc634a7eab84b354010ee2cc</t>
+  </si>
+  <si>
+    <t>Stellar 120 5438002.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stellar 120 5438002.eps</t>
+  </si>
+  <si>
+    <t>8d055e22e4ad41b9bdcdb354010ee96b</t>
+  </si>
+  <si>
+    <t>Stellar A4 54380.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stellar A4 54380.eps</t>
+  </si>
+  <si>
+    <t>a4f7fa3a7c0345fab981b354010eef0c</t>
+  </si>
+  <si>
+    <t>Gamma 180 5437402.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Gamma 180 5437402.eps</t>
+  </si>
+  <si>
+    <t>3e81ed4cfd3d42ddad66b354010ef426</t>
+  </si>
+  <si>
+    <t>SafeCut_clampicon_it.eps</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/SafeCut_clampicon_it.eps</t>
+  </si>
+  <si>
+    <t>9131c3864ea548d3bd03b354010efd18</t>
+  </si>
+  <si>
+    <t>5.54 MB</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +3281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10035,6 +10743,2310 @@
         <v>162</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D234" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E234" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G234" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H234" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I234" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="J234" t="s" s="0">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D235" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F235" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H235" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I235" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="J235" t="s" s="0">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E236" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G236" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H236" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I236" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="J236" t="s" s="0">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D237" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F237" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G237" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H237" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I237" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="J237" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E238" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H238" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I238" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="J238" t="s" s="0">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G239" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H239" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I239" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="J239" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D240" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G240" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H240" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I240" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J240" t="s" s="0">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D241" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E241" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G241" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H241" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I241" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="J241" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>868</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G242" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H242" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I242" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="J242" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G243" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H243" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I243" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="J243" t="s" s="0">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>873</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D244" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E244" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H244" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I244" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="J244" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>876</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D245" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E245" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G245" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H245" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I245" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="J245" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D246" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F246" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G246" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H246" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I246" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="J246" t="s" s="0">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>883</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D247" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H247" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I247" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="J247" t="s" s="0">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>886</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G248" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H248" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I248" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="J248" t="s" s="0">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F249" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G249" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H249" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I249" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="J249" t="s" s="0">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>892</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D250" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G250" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H250" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I250" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="J250" t="s" s="0">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D251" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G251" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H251" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I251" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="J251" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D252" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E252" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F252" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G252" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H252" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I252" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J252" t="s" s="0">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>903</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D253" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E253" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G253" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H253" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I253" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="J253" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>907</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E254" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G254" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H254" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I254" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="J254" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F255" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H255" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I255" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="J255" t="s" s="0">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>914</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E256" t="s" s="0">
+        <v>915</v>
+      </c>
+      <c r="F256" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G256" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H256" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I256" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="J256" t="s" s="0">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>918</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F257" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H257" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I257" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="J257" t="s" s="0">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H258" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I258" t="s" s="0">
+        <v>924</v>
+      </c>
+      <c r="J258" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>926</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E259" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H259" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I259" t="s" s="0">
+        <v>927</v>
+      </c>
+      <c r="J259" t="s" s="0">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H260" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I260" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="J260" t="s" s="0">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>932</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E261" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F261" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H261" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I261" t="s" s="0">
+        <v>934</v>
+      </c>
+      <c r="J261" t="s" s="0">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D262" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E262" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G262" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H262" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I262" t="s" s="0">
+        <v>937</v>
+      </c>
+      <c r="J262" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E263" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F263" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G263" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H263" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I263" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="J263" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D264" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E264" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F264" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H264" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I264" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="J264" t="s" s="0">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D265" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F265" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="G265" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H265" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I265" t="s" s="0">
+        <v>947</v>
+      </c>
+      <c r="J265" t="s" s="0">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>950</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F266" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G266" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H266" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I266" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="J266" t="s" s="0">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>954</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E267" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F267" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G267" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H267" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I267" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="J267" t="s" s="0">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>958</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D268" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E268" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F268" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G268" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H268" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I268" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="J268" t="s" s="0">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D269" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E269" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G269" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H269" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I269" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="J269" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D270" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E270" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H270" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I270" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="J270" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D271" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E271" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F271" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G271" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H271" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I271" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="J271" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>971</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D272" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E272" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G272" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H272" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I272" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="J272" t="s" s="0">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D273" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E273" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F273" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G273" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H273" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I273" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="J273" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E274" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H274" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I274" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="J274" t="s" s="0">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D275" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H275" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I275" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="J275" t="s" s="0">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>982</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>983</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G276" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H276" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I276" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="J276" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E277" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G277" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H277" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I277" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="J277" t="s" s="0">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E278" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G278" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H278" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I278" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="J278" t="s" s="0">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>992</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E279" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F279" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G279" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H279" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I279" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="J279" t="s" s="0">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E280" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H280" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I280" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="J280" t="s" s="0">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>999</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E281" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F281" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G281" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H281" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I281" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="J281" t="s" s="0">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D282" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E282" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G282" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H282" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I282" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="J282" t="s" s="0">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D283" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E283" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F283" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G283" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H283" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I283" t="s" s="0">
+        <v>1007</v>
+      </c>
+      <c r="J283" t="s" s="0">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>1009</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E284" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F284" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H284" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I284" t="s" s="0">
+        <v>1010</v>
+      </c>
+      <c r="J284" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D285" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F285" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G285" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H285" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I285" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="J285" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D286" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E286" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H286" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I286" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="J286" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>1017</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>1018</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D287" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E287" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H287" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I287" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="J287" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D288" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E288" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G288" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H288" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I288" t="s" s="0">
+        <v>1022</v>
+      </c>
+      <c r="J288" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>1023</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E289" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F289" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H289" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I289" t="s" s="0">
+        <v>1025</v>
+      </c>
+      <c r="J289" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>1026</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E290" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H290" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I290" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="J290" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>1029</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D291" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E291" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G291" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H291" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I291" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="J291" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>1033</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E292" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="G292" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H292" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I292" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="J292" t="s" s="0">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D293" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E293" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G293" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H293" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I293" t="s" s="0">
+        <v>1037</v>
+      </c>
+      <c r="J293" t="s" s="0">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D294" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F294" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G294" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H294" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I294" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="J294" t="s" s="0">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>1042</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D295" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E295" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G295" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H295" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I295" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J295" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>1044</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D296" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E296" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F296" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H296" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I296" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="J296" t="s" s="0">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>1047</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>1048</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D297" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E297" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F297" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G297" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H297" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I297" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="J297" t="s" s="0">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D298" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F298" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H298" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I298" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="J298" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>1053</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>1054</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D299" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F299" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G299" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H299" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I299" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="J299" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D300" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E300" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F300" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G300" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H300" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I300" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="J300" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E301" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F301" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G301" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H301" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I301" t="s" s="0">
+        <v>1061</v>
+      </c>
+      <c r="J301" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>1062</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>1063</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D302" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G302" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H302" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I302" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="J302" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D303" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F303" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H303" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I303" t="s" s="0">
+        <v>1067</v>
+      </c>
+      <c r="J303" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>1068</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D304" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E304" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F304" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H304" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I304" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="J304" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>1072</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D305" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E305" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F305" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G305" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H305" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="J305" t="s" s="0">
+        <v>1074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
